--- a/datasets/World_Bank/WB_Unemployment.xlsx
+++ b/datasets/World_Bank/WB_Unemployment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\MIT - esf_fisc\.matplotlib\data_extractor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\MIT - esf_fisc\(GIT) measuring_tax_effort\datasets\World_Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9C8EF5-013A-405E-AD65-0D1E1A5CED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324C71BA-BD62-49F5-B838-1247B73FA388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5724" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -987,844 +987,844 @@
     <t>KNA</t>
   </si>
   <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>Latin America &amp; Caribbean (excluding high income)</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>Latin America &amp; Caribbean</t>
+  </si>
+  <si>
+    <t>LCN</t>
+  </si>
+  <si>
+    <t>Least developed countries: UN classification</t>
+  </si>
+  <si>
+    <t>LDC</t>
+  </si>
+  <si>
+    <t>Low income</t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>Lower middle income</t>
+  </si>
+  <si>
+    <t>LMC</t>
+  </si>
+  <si>
+    <t>Low &amp; middle income</t>
+  </si>
+  <si>
+    <t>LMY</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>Late-demographic dividend</t>
+  </si>
+  <si>
+    <t>LTE</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>Macao SAR, China</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>St. Martin (French part)</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>Middle East &amp; North Africa</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>Middle income</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>Middle East &amp; North Africa (excluding high income)</t>
+  </si>
+  <si>
+    <t>MNA</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>NAC</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>NRU</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>OECD members</t>
+  </si>
+  <si>
+    <t>OED</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>Other small states</t>
+  </si>
+  <si>
+    <t>OSS</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>PLW</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Pre-demographic dividend</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>Korea, Dem. People's Rep.</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>West Bank and Gaza</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>Pacific island small states</t>
+  </si>
+  <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>Post-demographic dividend</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>PYF</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa (excluding high income)</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>SSF</t>
+  </si>
+  <si>
+    <t>Small states</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>SXM</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>East Asia &amp; Pacific (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>Europe &amp; Central Asia (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>TEC</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>Latin America &amp; the Caribbean (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>TLA</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>Middle East &amp; North Africa (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>TMN</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>South Asia (IDA &amp; IBRD)</t>
+  </si>
+  <si>
+    <t>TSA</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>Turkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>TUV</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>Upper middle income</t>
+  </si>
+  <si>
+    <t>UMC</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>Venezuela, RB</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>VGB</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>VIR</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>WLD</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>WSM</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>XKX</t>
+  </si>
+  <si>
+    <t>Yemen, Rep.</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
     <t>Korea, Rep.</t>
-  </si>
-  <si>
-    <t>KOR</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>KWT</t>
-  </si>
-  <si>
-    <t>Latin America &amp; Caribbean (excluding high income)</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>Lao PDR</t>
-  </si>
-  <si>
-    <t>LAO</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>LBN</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>LBY</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>LCA</t>
-  </si>
-  <si>
-    <t>Latin America &amp; Caribbean</t>
-  </si>
-  <si>
-    <t>LCN</t>
-  </si>
-  <si>
-    <t>Least developed countries: UN classification</t>
-  </si>
-  <si>
-    <t>LDC</t>
-  </si>
-  <si>
-    <t>Low income</t>
-  </si>
-  <si>
-    <t>LIC</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>LIE</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>Lower middle income</t>
-  </si>
-  <si>
-    <t>LMC</t>
-  </si>
-  <si>
-    <t>Low &amp; middle income</t>
-  </si>
-  <si>
-    <t>LMY</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>LSO</t>
-  </si>
-  <si>
-    <t>Late-demographic dividend</t>
-  </si>
-  <si>
-    <t>LTE</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>LTU</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>LUX</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>LVA</t>
-  </si>
-  <si>
-    <t>Macao SAR, China</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>St. Martin (French part)</t>
-  </si>
-  <si>
-    <t>MAF</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>MCO</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>MDA</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>MDG</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>MDV</t>
-  </si>
-  <si>
-    <t>Middle East &amp; North Africa</t>
-  </si>
-  <si>
-    <t>MEA</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>MHL</t>
-  </si>
-  <si>
-    <t>Middle income</t>
-  </si>
-  <si>
-    <t>MIC</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>MKD</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>MLI</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>MLT</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>Middle East &amp; North Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t>MNA</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>MNE</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>MNG</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>MNP</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>MOZ</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>MUS</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>MWI</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>MYS</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>NAC</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>NCL</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>NER</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>NIC</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>NPL</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>NRU</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>NZL</t>
-  </si>
-  <si>
-    <t>OECD members</t>
-  </si>
-  <si>
-    <t>OED</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>OMN</t>
-  </si>
-  <si>
-    <t>Other small states</t>
-  </si>
-  <si>
-    <t>OSS</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>PHL</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>PLW</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>PNG</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>Pre-demographic dividend</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>Korea, Dem. People's Rep.</t>
-  </si>
-  <si>
-    <t>PRK</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>PRT</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>PRY</t>
-  </si>
-  <si>
-    <t>West Bank and Gaza</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>Pacific island small states</t>
-  </si>
-  <si>
-    <t>PSS</t>
-  </si>
-  <si>
-    <t>Post-demographic dividend</t>
-  </si>
-  <si>
-    <t>PST</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>PYF</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>QAT</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>South Asia</t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>SAU</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>SEN</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>SGP</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>SLB</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>SLV</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>SMR</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>SRB</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t>SSA</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t>SSF</t>
-  </si>
-  <si>
-    <t>Small states</t>
-  </si>
-  <si>
-    <t>SST</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>STP</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>SUR</t>
-  </si>
-  <si>
-    <t>Slovak Republic</t>
-  </si>
-  <si>
-    <t>SVK</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>SVN</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>SWZ</t>
-  </si>
-  <si>
-    <t>Sint Maarten (Dutch part)</t>
-  </si>
-  <si>
-    <t>SXM</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>SYC</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>TCA</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>TCD</t>
-  </si>
-  <si>
-    <t>East Asia &amp; Pacific (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>TEA</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>TEC</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>TGO</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>THA</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>TJK</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>TKM</t>
-  </si>
-  <si>
-    <t>Latin America &amp; the Caribbean (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>TLA</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>TLS</t>
-  </si>
-  <si>
-    <t>Middle East &amp; North Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>TMN</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>TON</t>
-  </si>
-  <si>
-    <t>South Asia (IDA &amp; IBRD)</t>
-  </si>
-  <si>
-    <t>TSA</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>TSS</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>TTO</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>TUN</t>
-  </si>
-  <si>
-    <t>Turkiye</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>TUV</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>TZA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>Upper middle income</t>
-  </si>
-  <si>
-    <t>UMC</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>URY</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>UZB</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>VCT</t>
-  </si>
-  <si>
-    <t>Venezuela, RB</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>VGB</t>
-  </si>
-  <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
-    <t>VIR</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>VUT</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>WLD</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>WSM</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>XKX</t>
-  </si>
-  <si>
-    <t>Yemen, Rep.</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>ZMB</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>ZWE</t>
   </si>
 </sst>
 </file>
@@ -2153,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18695,10 +18695,10 @@
     </row>
     <row r="128" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>68</v>
@@ -18833,10 +18833,10 @@
     </row>
     <row r="129" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>68</v>
@@ -18971,10 +18971,10 @@
     </row>
     <row r="130" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>68</v>
@@ -19109,10 +19109,10 @@
     </row>
     <row r="131" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>68</v>
@@ -19247,10 +19247,10 @@
     </row>
     <row r="132" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>68</v>
@@ -19385,10 +19385,10 @@
     </row>
     <row r="133" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>68</v>
@@ -19523,10 +19523,10 @@
     </row>
     <row r="134" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>68</v>
@@ -19661,10 +19661,10 @@
     </row>
     <row r="135" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>68</v>
@@ -19799,10 +19799,10 @@
     </row>
     <row r="136" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>68</v>
@@ -19937,10 +19937,10 @@
     </row>
     <row r="137" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>68</v>
@@ -20075,10 +20075,10 @@
     </row>
     <row r="138" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>68</v>
@@ -20213,10 +20213,10 @@
     </row>
     <row r="139" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>68</v>
@@ -20289,10 +20289,10 @@
     </row>
     <row r="140" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>68</v>
@@ -20427,10 +20427,10 @@
     </row>
     <row r="141" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>68</v>
@@ -20565,10 +20565,10 @@
     </row>
     <row r="142" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>68</v>
@@ -20703,10 +20703,10 @@
     </row>
     <row r="143" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>68</v>
@@ -20841,10 +20841,10 @@
     </row>
     <row r="144" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>68</v>
@@ -20979,10 +20979,10 @@
     </row>
     <row r="145" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>68</v>
@@ -21117,10 +21117,10 @@
     </row>
     <row r="146" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>68</v>
@@ -21255,10 +21255,10 @@
     </row>
     <row r="147" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>68</v>
@@ -21393,10 +21393,10 @@
     </row>
     <row r="148" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>68</v>
@@ -21531,10 +21531,10 @@
     </row>
     <row r="149" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>68</v>
@@ -21607,10 +21607,10 @@
     </row>
     <row r="150" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>68</v>
@@ -21745,10 +21745,10 @@
     </row>
     <row r="151" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>68</v>
@@ -21821,10 +21821,10 @@
     </row>
     <row r="152" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>68</v>
@@ -21959,10 +21959,10 @@
     </row>
     <row r="153" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>68</v>
@@ -22097,10 +22097,10 @@
     </row>
     <row r="154" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>68</v>
@@ -22235,10 +22235,10 @@
     </row>
     <row r="155" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>68</v>
@@ -22373,10 +22373,10 @@
     </row>
     <row r="156" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>68</v>
@@ -22511,10 +22511,10 @@
     </row>
     <row r="157" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>68</v>
@@ -22587,10 +22587,10 @@
     </row>
     <row r="158" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>68</v>
@@ -22725,10 +22725,10 @@
     </row>
     <row r="159" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>68</v>
@@ -22863,10 +22863,10 @@
     </row>
     <row r="160" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>68</v>
@@ -23001,10 +23001,10 @@
     </row>
     <row r="161" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>68</v>
@@ -23139,10 +23139,10 @@
     </row>
     <row r="162" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>68</v>
@@ -23277,10 +23277,10 @@
     </row>
     <row r="163" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>68</v>
@@ -23415,10 +23415,10 @@
     </row>
     <row r="164" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>68</v>
@@ -23553,10 +23553,10 @@
     </row>
     <row r="165" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>68</v>
@@ -23691,10 +23691,10 @@
     </row>
     <row r="166" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>68</v>
@@ -23767,10 +23767,10 @@
     </row>
     <row r="167" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>68</v>
@@ -23905,10 +23905,10 @@
     </row>
     <row r="168" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>68</v>
@@ -24043,10 +24043,10 @@
     </row>
     <row r="169" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>68</v>
@@ -24181,10 +24181,10 @@
     </row>
     <row r="170" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>68</v>
@@ -24319,10 +24319,10 @@
     </row>
     <row r="171" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>68</v>
@@ -24457,10 +24457,10 @@
     </row>
     <row r="172" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>68</v>
@@ -24595,10 +24595,10 @@
     </row>
     <row r="173" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>68</v>
@@ -24733,10 +24733,10 @@
     </row>
     <row r="174" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>68</v>
@@ -24871,10 +24871,10 @@
     </row>
     <row r="175" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>68</v>
@@ -25009,10 +25009,10 @@
     </row>
     <row r="176" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>68</v>
@@ -25147,10 +25147,10 @@
     </row>
     <row r="177" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>68</v>
@@ -25285,10 +25285,10 @@
     </row>
     <row r="178" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>68</v>
@@ -25423,10 +25423,10 @@
     </row>
     <row r="179" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>68</v>
@@ -25561,10 +25561,10 @@
     </row>
     <row r="180" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>68</v>
@@ -25699,10 +25699,10 @@
     </row>
     <row r="181" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>68</v>
@@ -25775,10 +25775,10 @@
     </row>
     <row r="182" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>68</v>
@@ -25913,10 +25913,10 @@
     </row>
     <row r="183" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>68</v>
@@ -26051,10 +26051,10 @@
     </row>
     <row r="184" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>68</v>
@@ -26189,10 +26189,10 @@
     </row>
     <row r="185" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>68</v>
@@ -26327,10 +26327,10 @@
     </row>
     <row r="186" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>68</v>
@@ -26465,10 +26465,10 @@
     </row>
     <row r="187" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>68</v>
@@ -26603,10 +26603,10 @@
     </row>
     <row r="188" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>68</v>
@@ -26741,10 +26741,10 @@
     </row>
     <row r="189" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>68</v>
@@ -26879,10 +26879,10 @@
     </row>
     <row r="190" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>68</v>
@@ -26955,10 +26955,10 @@
     </row>
     <row r="191" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>68</v>
@@ -27093,10 +27093,10 @@
     </row>
     <row r="192" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>68</v>
@@ -27231,10 +27231,10 @@
     </row>
     <row r="193" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>68</v>
@@ -27369,10 +27369,10 @@
     </row>
     <row r="194" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>68</v>
@@ -27507,10 +27507,10 @@
     </row>
     <row r="195" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>68</v>
@@ -27645,10 +27645,10 @@
     </row>
     <row r="196" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>68</v>
@@ -27783,10 +27783,10 @@
     </row>
     <row r="197" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>68</v>
@@ -27921,10 +27921,10 @@
     </row>
     <row r="198" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>68</v>
@@ -28059,10 +28059,10 @@
     </row>
     <row r="199" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>68</v>
@@ -28197,10 +28197,10 @@
     </row>
     <row r="200" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>68</v>
@@ -28335,10 +28335,10 @@
     </row>
     <row r="201" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>68</v>
@@ -28473,10 +28473,10 @@
     </row>
     <row r="202" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>68</v>
@@ -28611,10 +28611,10 @@
     </row>
     <row r="203" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>68</v>
@@ -28749,10 +28749,10 @@
     </row>
     <row r="204" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>68</v>
@@ -28887,10 +28887,10 @@
     </row>
     <row r="205" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>68</v>
@@ -29025,10 +29025,10 @@
     </row>
     <row r="206" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>68</v>
@@ -29163,10 +29163,10 @@
     </row>
     <row r="207" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>68</v>
@@ -29301,10 +29301,10 @@
     </row>
     <row r="208" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>68</v>
@@ -29439,10 +29439,10 @@
     </row>
     <row r="209" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>68</v>
@@ -29577,10 +29577,10 @@
     </row>
     <row r="210" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>68</v>
@@ -29715,10 +29715,10 @@
     </row>
     <row r="211" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>68</v>
@@ -29853,10 +29853,10 @@
     </row>
     <row r="212" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>68</v>
@@ -29991,10 +29991,10 @@
     </row>
     <row r="213" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>68</v>
@@ -30129,10 +30129,10 @@
     </row>
     <row r="214" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>68</v>
@@ -30205,10 +30205,10 @@
     </row>
     <row r="215" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>68</v>
@@ -30343,10 +30343,10 @@
     </row>
     <row r="216" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>68</v>
@@ -30481,10 +30481,10 @@
     </row>
     <row r="217" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>68</v>
@@ -30619,10 +30619,10 @@
     </row>
     <row r="218" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>68</v>
@@ -30757,10 +30757,10 @@
     </row>
     <row r="219" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>68</v>
@@ -30895,10 +30895,10 @@
     </row>
     <row r="220" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>68</v>
@@ -31033,10 +31033,10 @@
     </row>
     <row r="221" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>68</v>
@@ -31171,10 +31171,10 @@
     </row>
     <row r="222" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>68</v>
@@ -31309,10 +31309,10 @@
     </row>
     <row r="223" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>68</v>
@@ -31447,10 +31447,10 @@
     </row>
     <row r="224" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>68</v>
@@ -31585,10 +31585,10 @@
     </row>
     <row r="225" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>68</v>
@@ -31723,10 +31723,10 @@
     </row>
     <row r="226" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>68</v>
@@ -31861,10 +31861,10 @@
     </row>
     <row r="227" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>68</v>
@@ -31937,10 +31937,10 @@
     </row>
     <row r="228" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>68</v>
@@ -32013,10 +32013,10 @@
     </row>
     <row r="229" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>68</v>
@@ -32151,10 +32151,10 @@
     </row>
     <row r="230" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>68</v>
@@ -32227,10 +32227,10 @@
     </row>
     <row r="231" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>68</v>
@@ -32365,10 +32365,10 @@
     </row>
     <row r="232" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>68</v>
@@ -32503,10 +32503,10 @@
     </row>
     <row r="233" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>68</v>
@@ -32641,10 +32641,10 @@
     </row>
     <row r="234" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>68</v>
@@ -32779,10 +32779,10 @@
     </row>
     <row r="235" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>68</v>
@@ -32917,10 +32917,10 @@
     </row>
     <row r="236" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>68</v>
@@ -33055,10 +33055,10 @@
     </row>
     <row r="237" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>68</v>
@@ -33193,10 +33193,10 @@
     </row>
     <row r="238" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>68</v>
@@ -33331,10 +33331,10 @@
     </row>
     <row r="239" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>68</v>
@@ -33469,10 +33469,10 @@
     </row>
     <row r="240" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>68</v>
@@ -33607,10 +33607,10 @@
     </row>
     <row r="241" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>68</v>
@@ -33745,10 +33745,10 @@
     </row>
     <row r="242" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>68</v>
@@ -33883,10 +33883,10 @@
     </row>
     <row r="243" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>68</v>
@@ -34021,10 +34021,10 @@
     </row>
     <row r="244" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>68</v>
@@ -34159,10 +34159,10 @@
     </row>
     <row r="245" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>68</v>
@@ -34297,10 +34297,10 @@
     </row>
     <row r="246" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>68</v>
@@ -34435,10 +34435,10 @@
     </row>
     <row r="247" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>68</v>
@@ -34511,10 +34511,10 @@
     </row>
     <row r="248" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>68</v>
@@ -34649,10 +34649,10 @@
     </row>
     <row r="249" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>68</v>
@@ -34787,10 +34787,10 @@
     </row>
     <row r="250" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>68</v>
@@ -34925,10 +34925,10 @@
     </row>
     <row r="251" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>68</v>
@@ -35063,10 +35063,10 @@
     </row>
     <row r="252" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>68</v>
@@ -35201,10 +35201,10 @@
     </row>
     <row r="253" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>68</v>
@@ -35339,10 +35339,10 @@
     </row>
     <row r="254" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>68</v>
@@ -35477,10 +35477,10 @@
     </row>
     <row r="255" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>68</v>
@@ -35615,10 +35615,10 @@
     </row>
     <row r="256" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>68</v>
@@ -35753,10 +35753,10 @@
     </row>
     <row r="257" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>68</v>
@@ -35829,10 +35829,10 @@
     </row>
     <row r="258" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>68</v>
@@ -35967,10 +35967,10 @@
     </row>
     <row r="259" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>68</v>
@@ -36105,10 +36105,10 @@
     </row>
     <row r="260" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>68</v>
@@ -36243,10 +36243,10 @@
     </row>
     <row r="261" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>68</v>
@@ -36381,10 +36381,10 @@
     </row>
     <row r="262" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>68</v>
@@ -36519,10 +36519,10 @@
     </row>
     <row r="263" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>68</v>
@@ -36595,10 +36595,10 @@
     </row>
     <row r="264" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>68</v>
@@ -36733,10 +36733,10 @@
     </row>
     <row r="265" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>68</v>
@@ -36871,10 +36871,10 @@
     </row>
     <row r="266" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>68</v>
@@ -37009,10 +37009,10 @@
     </row>
     <row r="267" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>68</v>
